--- a/data/trans_camb/CAGE_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/CAGE_R-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.7574639008878498</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.8519690012224946</v>
+        <v>0.8519690012224949</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.870280401376005</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6283791998169286</v>
+        <v>0.5645696929753463</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08890495416850838</v>
+        <v>0.05491311021793026</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.14254919397731</v>
+        <v>1.095506794629152</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.635426523763923</v>
+        <v>-1.992538374310584</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.3770002722985833</v>
+        <v>-0.3775959592333663</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.3215162797261827</v>
+        <v>-0.3225910724755638</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1231460282116752</v>
+        <v>0.2229597115641452</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1181879747532643</v>
+        <v>0.1331866212952635</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8475619453135618</v>
+        <v>0.9087030756376797</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.57712639727072</v>
+        <v>3.598800913455576</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.000962509323542</v>
+        <v>2.794534358637264</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.068391994454927</v>
+        <v>5.221226910361676</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.650703834943588</v>
+        <v>2.682453861953279</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.864033334868325</v>
+        <v>2.727950577133853</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.831072463478162</v>
+        <v>1.966202170816693</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.091110697782252</v>
+        <v>2.020381946771419</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.506536383738314</v>
+        <v>3.576143391761658</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>3.567693777657678</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8.037829522496247</v>
+        <v>8.037829522496251</v>
       </c>
     </row>
     <row r="8">
@@ -785,14 +785,12 @@
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
-      <c r="I8" s="6" t="n">
-        <v>-0.467706579859547</v>
-      </c>
+      <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.5174698223193352</v>
+        <v>-0.35591079372383</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.6835931345322274</v>
+        <v>0.3738306209582233</v>
       </c>
     </row>
     <row r="9">
@@ -859,31 +857,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3689085472587862</v>
+        <v>-0.5609506827189586</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8958434888019333</v>
+        <v>-0.9943735018628365</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6700576428154983</v>
+        <v>-0.5546428168928856</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.5604707075061945</v>
+        <v>-0.5566241804429738</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.2989491421761377</v>
+        <v>-0.2989214761648631</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4900429045438999</v>
+        <v>0.494477195485586</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.3095912067281918</v>
+        <v>-0.29310429138598</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.2828250742197255</v>
+        <v>-0.3021344004213755</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1757187804366659</v>
+        <v>0.203061967666151</v>
       </c>
     </row>
     <row r="12">
@@ -894,31 +892,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.319526593149538</v>
+        <v>3.447584597571746</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.556664560450532</v>
+        <v>1.451760041140615</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.616540078828464</v>
+        <v>2.667871931596767</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.016455642037661</v>
+        <v>1.060515406647294</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.784832871982393</v>
+        <v>1.76416273792037</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.090954190302663</v>
+        <v>5.144435722137093</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.679427981015534</v>
+        <v>1.816126821394925</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.258145872690722</v>
+        <v>1.300961203839369</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.737594887341184</v>
+        <v>2.832701461448019</v>
       </c>
     </row>
     <row r="13">
@@ -969,14 +967,12 @@
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
-      <c r="I14" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>-0.7012838291249373</v>
+        <v>-0.7004670729135083</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3878938520930524</v>
+        <v>-0.1882624238242732</v>
       </c>
     </row>
     <row r="15">
@@ -992,15 +988,11 @@
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
-      <c r="I15" s="6" t="n">
-        <v>9.794755152351966</v>
-      </c>
+      <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>7.12704223637637</v>
-      </c>
-      <c r="K15" s="6" t="n">
-        <v>16.97471775420411</v>
-      </c>
+        <v>10.83398312474717</v>
+      </c>
+      <c r="K15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1049,13 +1041,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2833632922008077</v>
+        <v>-0.1539210280528458</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.4240113193096429</v>
+        <v>-0.3866263533540915</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5288841289287436</v>
+        <v>0.4524834223845492</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
@@ -1063,13 +1055,13 @@
       </c>
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" s="5" t="n">
-        <v>-0.2545721012294389</v>
+        <v>-0.1680604748285539</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.03338603447674352</v>
+        <v>0.01030672191692801</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4216219636457662</v>
+        <v>0.2110793554864181</v>
       </c>
     </row>
     <row r="18">
@@ -1080,27 +1072,27 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.769790460520082</v>
+        <v>2.923183688085175</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.2737106500917</v>
+        <v>2.450908288505787</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.387148893658876</v>
+        <v>6.61613952247192</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>4.583512362905767</v>
+        <v>3.939724740138808</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
-        <v>1.944025409755955</v>
+        <v>2.202694823695551</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.129309252268581</v>
+        <v>2.298476927032273</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.742277061307196</v>
+        <v>5.609553706324691</v>
       </c>
     </row>
     <row r="19">
@@ -1117,7 +1109,7 @@
         <v>1.005381944078626</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3.155499308540243</v>
+        <v>3.155499308540242</v>
       </c>
       <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="inlineStr">
@@ -1144,25 +1136,25 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4229050344970809</v>
+        <v>-0.2670633009617993</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4527754419477036</v>
+        <v>-0.431533522497325</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.02813969459563252</v>
+        <v>0.04818706591520616</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.433372587018009</v>
+        <v>-0.3435136610001164</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1998530985755659</v>
+        <v>-0.175403461431423</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2139712269278339</v>
+        <v>-0.1872364050207689</v>
       </c>
     </row>
     <row r="21">
@@ -1173,25 +1165,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>9.053569710747032</v>
+        <v>7.93418200433455</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>6.283155170318394</v>
+        <v>7.181057542238496</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>19.16078209573756</v>
+        <v>15.97640693776535</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>6.456618028752543</v>
+        <v>9.899047001062044</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>7.072436411755199</v>
+        <v>10.23941303737361</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>20.86103642924873</v>
+        <v>18.00959122545826</v>
       </c>
     </row>
     <row r="22">
@@ -1221,7 +1213,7 @@
         <v>0.01004171541354</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.495188905522239</v>
+        <v>1.495188905522238</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.4574736697278292</v>
@@ -1241,31 +1233,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.0822240587581676</v>
+        <v>-0.0086010049148243</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4942902163039228</v>
+        <v>-0.5705853290754366</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08283949595883108</v>
+        <v>-0.0517157009413442</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.006453764881791</v>
+        <v>-0.883930224608558</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.7079923491635323</v>
+        <v>-0.6737000971018979</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1400415311113633</v>
+        <v>0.1482573485972764</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.2142918425078966</v>
+        <v>-0.1827649571286289</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.4093757277670486</v>
+        <v>-0.3975847601734444</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4282537313202769</v>
+        <v>0.3612669362921839</v>
       </c>
     </row>
     <row r="24">
@@ -1276,31 +1268,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.000074941586219</v>
+        <v>2.136497628292166</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.441128552247678</v>
+        <v>1.473143088048083</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.020748422011151</v>
+        <v>2.968555868144294</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2579639836206603</v>
+        <v>0.1943952495384868</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5584394701822833</v>
+        <v>0.5724621423712498</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.851923960291976</v>
+        <v>5.588937124091571</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.09206557141343</v>
+        <v>1.068144922610087</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8779823590279633</v>
+        <v>0.8540880967981994</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.060591161788103</v>
+        <v>2.783838278733564</v>
       </c>
     </row>
     <row r="25">
@@ -1326,7 +1318,7 @@
         <v>0.02983251806481713</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>4.441995037437702</v>
+        <v>4.4419950374377</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.5730286797931667</v>
@@ -1346,25 +1338,25 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1599713279821352</v>
+        <v>-0.08126744311220821</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3945562024551668</v>
+        <v>-0.4374054977651552</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.04826946093349124</v>
+        <v>-0.1398616861530678</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>-0.2185108834991127</v>
+        <v>-0.2369316226542469</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4522730361390497</v>
+        <v>-0.4077339193978063</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3407527407047222</v>
+        <v>0.2485276383895876</v>
       </c>
     </row>
     <row r="27">
@@ -1375,25 +1367,25 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.984638972488637</v>
+        <v>3.204584123231235</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.193687444730293</v>
+        <v>1.920342726622152</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.219742142380237</v>
+        <v>4.66998238281228</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>2.049073315279893</v>
+        <v>1.974268919325073</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.81806718900025</v>
+        <v>1.586189269413039</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>5.309248312383477</v>
+        <v>4.762495886172841</v>
       </c>
     </row>
     <row r="28">
@@ -1443,31 +1435,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.8585121282174767</v>
+        <v>-0.8566079729639431</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.212565160825136</v>
+        <v>-1.260712400619832</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2858249045348931</v>
+        <v>0.1342738418112749</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.666797915237866</v>
+        <v>-1.546264795417442</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.819453840767038</v>
+        <v>-1.65806422961824</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.2154174872590747</v>
+        <v>-0.2308867726988599</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.82411288058239</v>
+        <v>-0.8525573467204938</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.9944258518161785</v>
+        <v>-0.9195656536817847</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.5632547372641193</v>
+        <v>0.5707915664200788</v>
       </c>
     </row>
     <row r="30">
@@ -1478,31 +1470,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.318259410011257</v>
+        <v>2.358885510454416</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.790614014410775</v>
+        <v>1.743046764558503</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.274468262598734</v>
+        <v>5.26876786016381</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2220765448070224</v>
+        <v>0.2574022348614272</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.09592022296929303</v>
+        <v>0.1275495124443895</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.760815016456939</v>
+        <v>3.528989531909116</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.8196865018595243</v>
+        <v>0.8084412858643361</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.5508460521757557</v>
+        <v>0.6145126867778405</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.20124221207323</v>
+        <v>3.951563104057136</v>
       </c>
     </row>
     <row r="31">
@@ -1548,27 +1540,25 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5901895457527243</v>
+        <v>-0.5216116203535128</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7119340794740299</v>
+        <v>-0.731912703761913</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1826767371938003</v>
+        <v>-0.1698368084884271</v>
       </c>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
-      <c r="H32" s="6" t="n">
-        <v>-0.6541208284035416</v>
-      </c>
+      <c r="H32" s="6" t="inlineStr"/>
       <c r="I32" s="6" t="n">
-        <v>-0.6300434109756178</v>
+        <v>-0.6118268866617682</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.7387034881064287</v>
+        <v>-0.6882473646196389</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1944918891060326</v>
+        <v>0.2465889732178017</v>
       </c>
     </row>
     <row r="33">
@@ -1579,29 +1569,25 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>6.421113151903401</v>
+        <v>5.815032485505736</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>5.727155123764731</v>
+        <v>5.413026636382553</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>12.5663730878361</v>
+        <v>12.52575417843459</v>
       </c>
       <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
-      <c r="H33" s="6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+      <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="6" t="n">
-        <v>2.201531931101647</v>
+        <v>1.878109411901981</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.261406420446184</v>
+        <v>1.635968572010642</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>8.775830624967302</v>
+        <v>9.881403440131187</v>
       </c>
     </row>
     <row r="34">
@@ -1640,7 +1626,7 @@
         <v>0.5809938531243956</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.9133585519886936</v>
+        <v>0.9133585519886939</v>
       </c>
     </row>
     <row r="35">
@@ -1651,31 +1637,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.7484378853834436</v>
+        <v>0.7114231870250943</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.2826163155134661</v>
+        <v>0.3037267721339023</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.779419057913413</v>
+        <v>-1.999486675962862</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.236169022780464</v>
+        <v>-0.1635177472176618</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.003130110547224211</v>
+        <v>0</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.1622798176856632</v>
+        <v>-0.1625483059227118</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.0785162906439794</v>
+        <v>0.07899537472967107</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.1817595848959178</v>
+        <v>0.1928818669075898</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.201127876907645</v>
+        <v>-0.2005483013371931</v>
       </c>
     </row>
     <row r="36">
@@ -1686,31 +1672,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.13077401285602</v>
+        <v>4.768620053032777</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.79314906067624</v>
+        <v>3.738883714784891</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.2688505433437145</v>
+        <v>0.275586159252289</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.7670063750427966</v>
+        <v>0.8072930761250423</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.606196660086257</v>
+        <v>8.586960463496638</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.9940526006699597</v>
+        <v>0.9855105230385862</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.155142333484489</v>
+        <v>1.153963956557549</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.071078939323328</v>
+        <v>5.082646340538613</v>
       </c>
     </row>
     <row r="37">
@@ -1745,7 +1731,7 @@
         <v>4.330724568133932</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>6.80816896657556</v>
+        <v>6.808168966575561</v>
       </c>
     </row>
     <row r="38">
@@ -1762,10 +1748,10 @@
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="inlineStr"/>
       <c r="I38" s="6" t="n">
-        <v>-0.3054813082365117</v>
+        <v>-0.2360810252284644</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.08466352445540301</v>
+        <v>0.06729144064441314</v>
       </c>
       <c r="K38" s="6" t="inlineStr"/>
     </row>
@@ -1804,7 +1790,7 @@
         <v>0.6567474723791938</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1.682129215909458</v>
+        <v>1.682129215909459</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-0.1306281333009942</v>
@@ -1833,31 +1819,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.593503410527103</v>
+        <v>0.5780015798953984</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.2029008115437821</v>
+        <v>0.1726755713897579</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.9285623944841781</v>
+        <v>0.8831233874705855</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.3981396107401533</v>
+        <v>-0.3978867530436607</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.1248656672988326</v>
+        <v>-0.1220999915519585</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.6925987204597764</v>
+        <v>0.6925537565332566</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.1728821705177214</v>
+        <v>0.1794638625305092</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.1439161790573729</v>
+        <v>0.1332729978491893</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.122623122392416</v>
+        <v>1.117961136764066</v>
       </c>
     </row>
     <row r="42">
@@ -1868,31 +1854,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.711986921579181</v>
+        <v>1.762702110480185</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.294792853304837</v>
+        <v>1.262916644209092</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.576855095281689</v>
+        <v>2.633913319952723</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.06810444561790058</v>
+        <v>0.07643410338925488</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.4773143883452258</v>
+        <v>0.5103849060776878</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.636046351265203</v>
+        <v>2.662216022430273</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.7895883184743038</v>
+        <v>0.8025579197787328</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.7394935839343153</v>
+        <v>0.7477148206925931</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.406275853616123</v>
+        <v>2.486943494191428</v>
       </c>
     </row>
     <row r="43">
@@ -1909,7 +1895,7 @@
         <v>0.8376741416936933</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>2.145537221559744</v>
+        <v>2.145537221559745</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.4750702839540803</v>
@@ -1918,7 +1904,7 @@
         <v>0.7391161294135294</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>5.270168151815363</v>
+        <v>5.270168151815364</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.9370354811289465</v>
@@ -1938,31 +1924,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.545818178549635</v>
+        <v>0.5398533640184465</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1935835275762413</v>
+        <v>0.1668757461282</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.9259262908579902</v>
+        <v>0.7989109431863703</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.8782256224077261</v>
+        <v>-0.8902064374855309</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3143661198770121</v>
+        <v>-0.3634829547499766</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.535788508830789</v>
+        <v>1.429853053916694</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2378368019424396</v>
+        <v>0.2636948499414939</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.2105473194315353</v>
+        <v>0.1615053014316957</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.74805927524231</v>
+        <v>1.765674598792272</v>
       </c>
     </row>
     <row r="45">
@@ -1973,31 +1959,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.953368184665407</v>
+        <v>3.152564724333941</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.181646148740178</v>
+        <v>2.402866211929839</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>4.046602901465727</v>
+        <v>4.386482136949849</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.7058364144647108</v>
+        <v>0.80419708406343</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>3.319906918457225</v>
+        <v>3.681499616635978</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>16.47328288612208</v>
+        <v>16.36313264490393</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.965903497859115</v>
+        <v>1.949806121732442</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.882446742962996</v>
+        <v>1.840244173636373</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>5.560217996094777</v>
+        <v>5.858633167817417</v>
       </c>
     </row>
     <row r="46">
